--- a/Story/Resource list (wip).xlsx
+++ b/Story/Resource list (wip).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Documents\Senior Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Library Laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13B6CC3-2B67-4772-8911-DF49AC04A69B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -373,12 +372,24 @@
   </si>
   <si>
     <t>2.5 royals per stone</t>
+  </si>
+  <si>
+    <t>An alcoholic drink derived from grapes. Quite common at the dinner table and an important addition at religious ceremonies</t>
+  </si>
+  <si>
+    <t>GRAPES</t>
+  </si>
+  <si>
+    <t>A round fruit grown on vines known for its sweetness. Mostly used to make wines. Could be used to make jams and candied grapes.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +508,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -809,11 +820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,145 +1059,143 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>96</v>
@@ -1194,124 +1203,139 @@
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
